--- a/transporters.xlsx
+++ b/transporters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A67C21-FD95-8147-8966-800F21F23F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ABE66E-39C9-B545-A2AC-8EE6C42DD020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="1020" windowWidth="30480" windowHeight="21360" xr2:uid="{A529BDD9-D995-0044-9483-8AA193591A69}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="33840" windowHeight="28300" xr2:uid="{A529BDD9-D995-0044-9483-8AA193591A69}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="361">
   <si>
     <t>K02040_pstS</t>
   </si>
@@ -1034,13 +1034,103 @@
   </si>
   <si>
     <t>REACTION</t>
+  </si>
+  <si>
+    <t>K16322_K03306_pitAB</t>
+  </si>
+  <si>
+    <t>K16322,K03306</t>
+  </si>
+  <si>
+    <t>pit phosphate transporter</t>
+  </si>
+  <si>
+    <t>K05813_ugpB</t>
+  </si>
+  <si>
+    <t>K05813</t>
+  </si>
+  <si>
+    <t>K05814_ugpA</t>
+  </si>
+  <si>
+    <t>K05814</t>
+  </si>
+  <si>
+    <t>K05815</t>
+  </si>
+  <si>
+    <t>K05816</t>
+  </si>
+  <si>
+    <t>K05815_ugpE</t>
+  </si>
+  <si>
+    <t>K05816_ugpC</t>
+  </si>
+  <si>
+    <t>ugp substrate-binding protein</t>
+  </si>
+  <si>
+    <t>ugpABCE Glycerol-Phosphate Transporter</t>
+  </si>
+  <si>
+    <t>ugp permease protein ugpA</t>
+  </si>
+  <si>
+    <t>ugp permease protein ugpE</t>
+  </si>
+  <si>
+    <t>ugp ATP-binding protein</t>
+  </si>
+  <si>
+    <t>K17321</t>
+  </si>
+  <si>
+    <t>K17322</t>
+  </si>
+  <si>
+    <t>K17323</t>
+  </si>
+  <si>
+    <t>K17324</t>
+  </si>
+  <si>
+    <t>K17325</t>
+  </si>
+  <si>
+    <t>glpV</t>
+  </si>
+  <si>
+    <t>glpP</t>
+  </si>
+  <si>
+    <t>glpQ_K17323</t>
+  </si>
+  <si>
+    <t>glpS</t>
+  </si>
+  <si>
+    <t>glpT</t>
+  </si>
+  <si>
+    <t>K05813_ugpB + K05814_ugpA + K05815_ugpE + K05816_ugpC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if diesters are imported they can be further processed with ugpQ </t>
+  </si>
+  <si>
+    <t>glpVPQST Glycerol Transporter</t>
+  </si>
+  <si>
+    <t>glpV + glpP + glpQ_K17323 + glpS + glpT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1058,8 +1148,21 @@
       <color theme="1"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,6 +1199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1109,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1121,6 +1230,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,9 +1250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1179,7 +1290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1285,7 +1396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1427,7 +1538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1435,17 +1546,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6A797B-A394-3942-A680-8F0C27AFD4FB}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1629,7 +1739,7 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -1646,7 +1756,7 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -1663,7 +1773,7 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -1680,7 +1790,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
@@ -3068,6 +3178,131 @@
       </c>
       <c r="E95" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>342</v>
+      </c>
+      <c r="E97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" t="s">
+        <v>344</v>
+      </c>
+      <c r="E98" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" t="s">
+        <v>338</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C100" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" t="s">
+        <v>346</v>
+      </c>
+      <c r="E100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E101" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+      <c r="E102" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>355</v>
+      </c>
+      <c r="C104" t="s">
+        <v>350</v>
+      </c>
+      <c r="E104" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" t="s">
+        <v>351</v>
+      </c>
+      <c r="E105" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3076,24 +3311,28 @@
       <sortCondition ref="B1:B95"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D2C318-8064-7148-935C-8E6296FB87E8}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -3227,7 +3466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -3235,7 +3474,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -3243,7 +3482,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -3251,7 +3490,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -3259,7 +3498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -3267,7 +3506,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>223</v>
       </c>
@@ -3275,7 +3514,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>237</v>
       </c>
@@ -3283,7 +3522,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>247</v>
       </c>
@@ -3291,7 +3530,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -3299,7 +3538,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>269</v>
       </c>
@@ -3307,12 +3546,39 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>279</v>
       </c>
       <c r="B27" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
